--- a/010-rbase-two-days/data/xlsx/newFile.xlsx
+++ b/010-rbase-two-days/data/xlsx/newFile.xlsx
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy hh:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -89,33 +89,33 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment wrapText="true"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
@@ -172,31 +172,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n" s="3">
+      <c r="C2" s="3" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="n" s="3">
+      <c r="C3" s="3" t="n">
         <v>3.0</v>
       </c>
     </row>
@@ -214,45 +214,45 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="3">
+      <c r="A2" s="3" t="n">
         <v>41.0</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="3" t="n">
         <v>190.0</v>
       </c>
-      <c r="C2" t="n" s="3">
+      <c r="C2" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D2" t="n" s="3">
+      <c r="D2" s="3" t="n">
         <v>67.0</v>
       </c>
-      <c r="E2" t="n" s="3">
+      <c r="E2" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F2" t="n" s="3">
+      <c r="F2" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="G2" t="n">
@@ -261,22 +261,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n" s="3">
+      <c r="A3" s="3" t="n">
         <v>36.0</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="3" t="n">
         <v>118.0</v>
       </c>
-      <c r="C3" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D3" t="n" s="3">
+      <c r="C3" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>72.0</v>
       </c>
-      <c r="E3" t="n" s="3">
+      <c r="E3" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F3" t="n" s="3">
+      <c r="F3" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="G3" t="n">
@@ -285,22 +285,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="3">
+      <c r="A4" s="3" t="n">
         <v>12.0</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="3" t="n">
         <v>149.0</v>
       </c>
-      <c r="C4" t="n" s="3">
+      <c r="C4" s="3" t="n">
         <v>12.6</v>
       </c>
-      <c r="D4" t="n" s="3">
+      <c r="D4" s="3" t="n">
         <v>74.0</v>
       </c>
-      <c r="E4" t="n" s="3">
+      <c r="E4" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F4" t="n" s="3">
+      <c r="F4" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="G4" t="n">
@@ -309,22 +309,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n" s="3">
+      <c r="A5" s="3" t="n">
         <v>18.0</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="3" t="n">
         <v>313.0</v>
       </c>
-      <c r="C5" t="n" s="3">
+      <c r="C5" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D5" t="n" s="3">
+      <c r="D5" s="3" t="n">
         <v>62.0</v>
       </c>
-      <c r="E5" t="n" s="3">
+      <c r="E5" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F5" t="n" s="3">
+      <c r="F5" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="G5" t="n">
@@ -335,16 +335,16 @@
     <row r="6">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="C6" t="n" s="3">
+      <c r="C6" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="D6" t="n" s="3">
+      <c r="D6" s="3" t="n">
         <v>56.0</v>
       </c>
-      <c r="E6" t="n" s="3">
+      <c r="E6" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F6" t="n" s="3">
+      <c r="F6" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="G6" t="n">
@@ -353,20 +353,20 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n" s="3">
+      <c r="A7" s="3" t="n">
         <v>28.0</v>
       </c>
       <c r="B7"/>
-      <c r="C7" t="n" s="3">
+      <c r="C7" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D7" t="n" s="3">
+      <c r="D7" s="3" t="n">
         <v>66.0</v>
       </c>
-      <c r="E7" t="n" s="3">
+      <c r="E7" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F7" t="n" s="3">
+      <c r="F7" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="G7" t="n">
@@ -375,22 +375,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n" s="3">
+      <c r="A8" s="3" t="n">
         <v>23.0</v>
       </c>
-      <c r="B8" t="n" s="3">
+      <c r="B8" s="3" t="n">
         <v>299.0</v>
       </c>
-      <c r="C8" t="n" s="3">
+      <c r="C8" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D8" t="n" s="3">
+      <c r="D8" s="3" t="n">
         <v>65.0</v>
       </c>
-      <c r="E8" t="n" s="3">
+      <c r="E8" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F8" t="n" s="3">
+      <c r="F8" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="G8" t="n">
@@ -399,22 +399,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n" s="3">
+      <c r="A9" s="3" t="n">
         <v>19.0</v>
       </c>
-      <c r="B9" t="n" s="3">
+      <c r="B9" s="3" t="n">
         <v>99.0</v>
       </c>
-      <c r="C9" t="n" s="3">
+      <c r="C9" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="D9" t="n" s="3">
+      <c r="D9" s="3" t="n">
         <v>59.0</v>
       </c>
-      <c r="E9" t="n" s="3">
+      <c r="E9" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F9" t="n" s="3">
+      <c r="F9" s="3" t="n">
         <v>8.0</v>
       </c>
       <c r="G9" t="n">
@@ -423,22 +423,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B10" t="n" s="3">
+      <c r="A10" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>19.0</v>
       </c>
-      <c r="C10" t="n" s="3">
+      <c r="C10" s="3" t="n">
         <v>20.1</v>
       </c>
-      <c r="D10" t="n" s="3">
+      <c r="D10" s="3" t="n">
         <v>61.0</v>
       </c>
-      <c r="E10" t="n" s="3">
+      <c r="E10" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F10" t="n" s="3">
+      <c r="F10" s="3" t="n">
         <v>9.0</v>
       </c>
       <c r="G10" t="n">
@@ -448,19 +448,19 @@
     </row>
     <row r="11">
       <c r="A11"/>
-      <c r="B11" t="n" s="3">
+      <c r="B11" s="3" t="n">
         <v>194.0</v>
       </c>
-      <c r="C11" t="n" s="3">
+      <c r="C11" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D11" t="n" s="3">
+      <c r="D11" s="3" t="n">
         <v>69.0</v>
       </c>
-      <c r="E11" t="n" s="3">
+      <c r="E11" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F11" t="n" s="3">
+      <c r="F11" s="3" t="n">
         <v>10.0</v>
       </c>
       <c r="G11" t="n">
@@ -469,20 +469,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n" s="3">
+      <c r="A12" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="B12"/>
-      <c r="C12" t="n" s="3">
+      <c r="C12" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D12" t="n" s="3">
+      <c r="D12" s="3" t="n">
         <v>74.0</v>
       </c>
-      <c r="E12" t="n" s="3">
+      <c r="E12" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F12" t="n" s="3">
+      <c r="F12" s="3" t="n">
         <v>11.0</v>
       </c>
       <c r="G12" t="n">
@@ -491,22 +491,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n" s="3">
+      <c r="A13" s="3" t="n">
         <v>16.0</v>
       </c>
-      <c r="B13" t="n" s="3">
+      <c r="B13" s="3" t="n">
         <v>256.0</v>
       </c>
-      <c r="C13" t="n" s="3">
+      <c r="C13" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D13" t="n" s="3">
+      <c r="D13" s="3" t="n">
         <v>69.0</v>
       </c>
-      <c r="E13" t="n" s="3">
+      <c r="E13" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F13" t="n" s="3">
+      <c r="F13" s="3" t="n">
         <v>12.0</v>
       </c>
       <c r="G13" t="n">
@@ -515,22 +515,22 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n" s="3">
+      <c r="A14" s="3" t="n">
         <v>11.0</v>
       </c>
-      <c r="B14" t="n" s="3">
+      <c r="B14" s="3" t="n">
         <v>290.0</v>
       </c>
-      <c r="C14" t="n" s="3">
+      <c r="C14" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D14" t="n" s="3">
+      <c r="D14" s="3" t="n">
         <v>66.0</v>
       </c>
-      <c r="E14" t="n" s="3">
+      <c r="E14" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F14" t="n" s="3">
+      <c r="F14" s="3" t="n">
         <v>13.0</v>
       </c>
       <c r="G14" t="n">
@@ -539,22 +539,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n" s="3">
+      <c r="A15" s="3" t="n">
         <v>14.0</v>
       </c>
-      <c r="B15" t="n" s="3">
+      <c r="B15" s="3" t="n">
         <v>274.0</v>
       </c>
-      <c r="C15" t="n" s="3">
+      <c r="C15" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D15" t="n" s="3">
+      <c r="D15" s="3" t="n">
         <v>68.0</v>
       </c>
-      <c r="E15" t="n" s="3">
+      <c r="E15" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F15" t="n" s="3">
+      <c r="F15" s="3" t="n">
         <v>14.0</v>
       </c>
       <c r="G15" t="n">
@@ -563,22 +563,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n" s="3">
+      <c r="A16" s="3" t="n">
         <v>18.0</v>
       </c>
-      <c r="B16" t="n" s="3">
+      <c r="B16" s="3" t="n">
         <v>65.0</v>
       </c>
-      <c r="C16" t="n" s="3">
+      <c r="C16" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="D16" t="n" s="3">
+      <c r="D16" s="3" t="n">
         <v>58.0</v>
       </c>
-      <c r="E16" t="n" s="3">
+      <c r="E16" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F16" t="n" s="3">
+      <c r="F16" s="3" t="n">
         <v>15.0</v>
       </c>
       <c r="G16" t="n">
@@ -587,22 +587,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n" s="3">
+      <c r="A17" s="3" t="n">
         <v>14.0</v>
       </c>
-      <c r="B17" t="n" s="3">
+      <c r="B17" s="3" t="n">
         <v>334.0</v>
       </c>
-      <c r="C17" t="n" s="3">
+      <c r="C17" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D17" t="n" s="3">
+      <c r="D17" s="3" t="n">
         <v>64.0</v>
       </c>
-      <c r="E17" t="n" s="3">
+      <c r="E17" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F17" t="n" s="3">
+      <c r="F17" s="3" t="n">
         <v>16.0</v>
       </c>
       <c r="G17" t="n">
@@ -611,22 +611,22 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n" s="3">
+      <c r="A18" s="3" t="n">
         <v>34.0</v>
       </c>
-      <c r="B18" t="n" s="3">
+      <c r="B18" s="3" t="n">
         <v>307.0</v>
       </c>
-      <c r="C18" t="n" s="3">
+      <c r="C18" s="3" t="n">
         <v>12.0</v>
       </c>
-      <c r="D18" t="n" s="3">
+      <c r="D18" s="3" t="n">
         <v>66.0</v>
       </c>
-      <c r="E18" t="n" s="3">
+      <c r="E18" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F18" t="n" s="3">
+      <c r="F18" s="3" t="n">
         <v>17.0</v>
       </c>
       <c r="G18" t="n">
@@ -635,22 +635,22 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n" s="3">
+      <c r="A19" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="B19" t="n" s="3">
+      <c r="B19" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="C19" t="n" s="3">
+      <c r="C19" s="3" t="n">
         <v>18.4</v>
       </c>
-      <c r="D19" t="n" s="3">
+      <c r="D19" s="3" t="n">
         <v>57.0</v>
       </c>
-      <c r="E19" t="n" s="3">
+      <c r="E19" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F19" t="n" s="3">
+      <c r="F19" s="3" t="n">
         <v>18.0</v>
       </c>
       <c r="G19" t="n">
@@ -659,22 +659,22 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n" s="3">
+      <c r="A20" s="3" t="n">
         <v>30.0</v>
       </c>
-      <c r="B20" t="n" s="3">
+      <c r="B20" s="3" t="n">
         <v>322.0</v>
       </c>
-      <c r="C20" t="n" s="3">
+      <c r="C20" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D20" t="n" s="3">
+      <c r="D20" s="3" t="n">
         <v>68.0</v>
       </c>
-      <c r="E20" t="n" s="3">
+      <c r="E20" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F20" t="n" s="3">
+      <c r="F20" s="3" t="n">
         <v>19.0</v>
       </c>
       <c r="G20" t="n">
@@ -683,22 +683,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n" s="3">
+      <c r="A21" s="3" t="n">
         <v>11.0</v>
       </c>
-      <c r="B21" t="n" s="3">
+      <c r="B21" s="3" t="n">
         <v>44.0</v>
       </c>
-      <c r="C21" t="n" s="3">
+      <c r="C21" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D21" t="n" s="3">
+      <c r="D21" s="3" t="n">
         <v>62.0</v>
       </c>
-      <c r="E21" t="n" s="3">
+      <c r="E21" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F21" t="n" s="3">
+      <c r="F21" s="3" t="n">
         <v>20.0</v>
       </c>
       <c r="G21" t="n">
@@ -707,22 +707,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n" s="3">
+      <c r="A22" s="3" t="n">
         <v>1.0</v>
       </c>
-      <c r="B22" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C22" t="n" s="3">
+      <c r="B22" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D22" t="n" s="3">
+      <c r="D22" s="3" t="n">
         <v>59.0</v>
       </c>
-      <c r="E22" t="n" s="3">
+      <c r="E22" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F22" t="n" s="3">
+      <c r="F22" s="3" t="n">
         <v>21.0</v>
       </c>
       <c r="G22" t="n">
@@ -731,22 +731,22 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n" s="3">
+      <c r="A23" s="3" t="n">
         <v>11.0</v>
       </c>
-      <c r="B23" t="n" s="3">
+      <c r="B23" s="3" t="n">
         <v>320.0</v>
       </c>
-      <c r="C23" t="n" s="3">
+      <c r="C23" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="D23" t="n" s="3">
+      <c r="D23" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="E23" t="n" s="3">
+      <c r="E23" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F23" t="n" s="3">
+      <c r="F23" s="3" t="n">
         <v>22.0</v>
       </c>
       <c r="G23" t="n">
@@ -755,22 +755,22 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n" s="3">
+      <c r="A24" s="3" t="n">
         <v>4.0</v>
       </c>
-      <c r="B24" t="n" s="3">
+      <c r="B24" s="3" t="n">
         <v>25.0</v>
       </c>
-      <c r="C24" t="n" s="3">
+      <c r="C24" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D24" t="n" s="3">
+      <c r="D24" s="3" t="n">
         <v>61.0</v>
       </c>
-      <c r="E24" t="n" s="3">
+      <c r="E24" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F24" t="n" s="3">
+      <c r="F24" s="3" t="n">
         <v>23.0</v>
       </c>
       <c r="G24" t="n">
@@ -779,22 +779,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n" s="3">
+      <c r="A25" s="3" t="n">
         <v>32.0</v>
       </c>
-      <c r="B25" t="n" s="3">
+      <c r="B25" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="C25" t="n" s="3">
+      <c r="C25" s="3" t="n">
         <v>12.0</v>
       </c>
-      <c r="D25" t="n" s="3">
+      <c r="D25" s="3" t="n">
         <v>61.0</v>
       </c>
-      <c r="E25" t="n" s="3">
+      <c r="E25" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F25" t="n" s="3">
+      <c r="F25" s="3" t="n">
         <v>24.0</v>
       </c>
       <c r="G25" t="n">
@@ -804,19 +804,19 @@
     </row>
     <row r="26">
       <c r="A26"/>
-      <c r="B26" t="n" s="3">
+      <c r="B26" s="3" t="n">
         <v>66.0</v>
       </c>
-      <c r="C26" t="n" s="3">
+      <c r="C26" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="D26" t="n" s="3">
+      <c r="D26" s="3" t="n">
         <v>57.0</v>
       </c>
-      <c r="E26" t="n" s="3">
+      <c r="E26" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F26" t="n" s="3">
+      <c r="F26" s="3" t="n">
         <v>25.0</v>
       </c>
       <c r="G26" t="n">
@@ -826,19 +826,19 @@
     </row>
     <row r="27">
       <c r="A27"/>
-      <c r="B27" t="n" s="3">
+      <c r="B27" s="3" t="n">
         <v>266.0</v>
       </c>
-      <c r="C27" t="n" s="3">
+      <c r="C27" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D27" t="n" s="3">
+      <c r="D27" s="3" t="n">
         <v>58.0</v>
       </c>
-      <c r="E27" t="n" s="3">
+      <c r="E27" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F27" t="n" s="3">
+      <c r="F27" s="3" t="n">
         <v>26.0</v>
       </c>
       <c r="G27" t="n">
@@ -849,16 +849,16 @@
     <row r="28">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="C28" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D28" t="n" s="3">
+      <c r="C28" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D28" s="3" t="n">
         <v>57.0</v>
       </c>
-      <c r="E28" t="n" s="3">
+      <c r="E28" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F28" t="n" s="3">
+      <c r="F28" s="3" t="n">
         <v>27.0</v>
       </c>
       <c r="G28" t="n">
@@ -867,22 +867,22 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n" s="3">
+      <c r="A29" s="3" t="n">
         <v>23.0</v>
       </c>
-      <c r="B29" t="n" s="3">
+      <c r="B29" s="3" t="n">
         <v>13.0</v>
       </c>
-      <c r="C29" t="n" s="3">
+      <c r="C29" s="3" t="n">
         <v>12.0</v>
       </c>
-      <c r="D29" t="n" s="3">
+      <c r="D29" s="3" t="n">
         <v>67.0</v>
       </c>
-      <c r="E29" t="n" s="3">
+      <c r="E29" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F29" t="n" s="3">
+      <c r="F29" s="3" t="n">
         <v>28.0</v>
       </c>
       <c r="G29" t="n">
@@ -891,22 +891,22 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n" s="3">
+      <c r="A30" s="3" t="n">
         <v>45.0</v>
       </c>
-      <c r="B30" t="n" s="3">
+      <c r="B30" s="3" t="n">
         <v>252.0</v>
       </c>
-      <c r="C30" t="n" s="3">
+      <c r="C30" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D30" t="n" s="3">
+      <c r="D30" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E30" t="n" s="3">
+      <c r="E30" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F30" t="n" s="3">
+      <c r="F30" s="3" t="n">
         <v>29.0</v>
       </c>
       <c r="G30" t="n">
@@ -915,22 +915,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n" s="3">
+      <c r="A31" s="3" t="n">
         <v>115.0</v>
       </c>
-      <c r="B31" t="n" s="3">
+      <c r="B31" s="3" t="n">
         <v>223.0</v>
       </c>
-      <c r="C31" t="n" s="3">
+      <c r="C31" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="D31" t="n" s="3">
+      <c r="D31" s="3" t="n">
         <v>79.0</v>
       </c>
-      <c r="E31" t="n" s="3">
+      <c r="E31" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F31" t="n" s="3">
+      <c r="F31" s="3" t="n">
         <v>30.0</v>
       </c>
       <c r="G31" t="n">
@@ -939,22 +939,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n" s="3">
+      <c r="A32" s="3" t="n">
         <v>37.0</v>
       </c>
-      <c r="B32" t="n" s="3">
+      <c r="B32" s="3" t="n">
         <v>279.0</v>
       </c>
-      <c r="C32" t="n" s="3">
+      <c r="C32" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D32" t="n" s="3">
+      <c r="D32" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E32" t="n" s="3">
+      <c r="E32" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="F32" t="n" s="3">
+      <c r="F32" s="3" t="n">
         <v>31.0</v>
       </c>
       <c r="G32" t="n">
@@ -964,19 +964,19 @@
     </row>
     <row r="33">
       <c r="A33"/>
-      <c r="B33" t="n" s="3">
+      <c r="B33" s="3" t="n">
         <v>286.0</v>
       </c>
-      <c r="C33" t="n" s="3">
+      <c r="C33" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D33" t="n" s="3">
+      <c r="D33" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="E33" t="n" s="3">
+      <c r="E33" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F33" t="n" s="3">
+      <c r="F33" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="G33" t="n">
@@ -986,19 +986,19 @@
     </row>
     <row r="34">
       <c r="A34"/>
-      <c r="B34" t="n" s="3">
+      <c r="B34" s="3" t="n">
         <v>287.0</v>
       </c>
-      <c r="C34" t="n" s="3">
+      <c r="C34" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D34" t="n" s="3">
+      <c r="D34" s="3" t="n">
         <v>74.0</v>
       </c>
-      <c r="E34" t="n" s="3">
+      <c r="E34" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F34" t="n" s="3">
+      <c r="F34" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="G34" t="n">
@@ -1008,19 +1008,19 @@
     </row>
     <row r="35">
       <c r="A35"/>
-      <c r="B35" t="n" s="3">
+      <c r="B35" s="3" t="n">
         <v>242.0</v>
       </c>
-      <c r="C35" t="n" s="3">
+      <c r="C35" s="3" t="n">
         <v>16.1</v>
       </c>
-      <c r="D35" t="n" s="3">
+      <c r="D35" s="3" t="n">
         <v>67.0</v>
       </c>
-      <c r="E35" t="n" s="3">
+      <c r="E35" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F35" t="n" s="3">
+      <c r="F35" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="G35" t="n">
@@ -1030,19 +1030,19 @@
     </row>
     <row r="36">
       <c r="A36"/>
-      <c r="B36" t="n" s="3">
+      <c r="B36" s="3" t="n">
         <v>186.0</v>
       </c>
-      <c r="C36" t="n" s="3">
+      <c r="C36" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D36" t="n" s="3">
+      <c r="D36" s="3" t="n">
         <v>84.0</v>
       </c>
-      <c r="E36" t="n" s="3">
+      <c r="E36" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F36" t="n" s="3">
+      <c r="F36" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="G36" t="n">
@@ -1052,19 +1052,19 @@
     </row>
     <row r="37">
       <c r="A37"/>
-      <c r="B37" t="n" s="3">
+      <c r="B37" s="3" t="n">
         <v>220.0</v>
       </c>
-      <c r="C37" t="n" s="3">
+      <c r="C37" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D37" t="n" s="3">
+      <c r="D37" s="3" t="n">
         <v>85.0</v>
       </c>
-      <c r="E37" t="n" s="3">
+      <c r="E37" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F37" t="n" s="3">
+      <c r="F37" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="G37" t="n">
@@ -1074,19 +1074,19 @@
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="n" s="3">
+      <c r="B38" s="3" t="n">
         <v>264.0</v>
       </c>
-      <c r="C38" t="n" s="3">
+      <c r="C38" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="D38" t="n" s="3">
+      <c r="D38" s="3" t="n">
         <v>79.0</v>
       </c>
-      <c r="E38" t="n" s="3">
+      <c r="E38" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F38" t="n" s="3">
+      <c r="F38" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="G38" t="n">
@@ -1095,22 +1095,22 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n" s="3">
+      <c r="A39" s="3" t="n">
         <v>29.0</v>
       </c>
-      <c r="B39" t="n" s="3">
+      <c r="B39" s="3" t="n">
         <v>127.0</v>
       </c>
-      <c r="C39" t="n" s="3">
+      <c r="C39" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D39" t="n" s="3">
+      <c r="D39" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E39" t="n" s="3">
+      <c r="E39" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F39" t="n" s="3">
+      <c r="F39" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="G39" t="n">
@@ -1120,19 +1120,19 @@
     </row>
     <row r="40">
       <c r="A40"/>
-      <c r="B40" t="n" s="3">
+      <c r="B40" s="3" t="n">
         <v>273.0</v>
       </c>
-      <c r="C40" t="n" s="3">
+      <c r="C40" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D40" t="n" s="3">
+      <c r="D40" s="3" t="n">
         <v>87.0</v>
       </c>
-      <c r="E40" t="n" s="3">
+      <c r="E40" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F40" t="n" s="3">
+      <c r="F40" s="3" t="n">
         <v>8.0</v>
       </c>
       <c r="G40" t="n">
@@ -1141,22 +1141,22 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n" s="3">
+      <c r="A41" s="3" t="n">
         <v>71.0</v>
       </c>
-      <c r="B41" t="n" s="3">
+      <c r="B41" s="3" t="n">
         <v>291.0</v>
       </c>
-      <c r="C41" t="n" s="3">
+      <c r="C41" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="D41" t="n" s="3">
+      <c r="D41" s="3" t="n">
         <v>90.0</v>
       </c>
-      <c r="E41" t="n" s="3">
+      <c r="E41" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F41" t="n" s="3">
+      <c r="F41" s="3" t="n">
         <v>9.0</v>
       </c>
       <c r="G41" t="n">
@@ -1165,22 +1165,22 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n" s="3">
+      <c r="A42" s="3" t="n">
         <v>39.0</v>
       </c>
-      <c r="B42" t="n" s="3">
+      <c r="B42" s="3" t="n">
         <v>323.0</v>
       </c>
-      <c r="C42" t="n" s="3">
+      <c r="C42" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D42" t="n" s="3">
+      <c r="D42" s="3" t="n">
         <v>87.0</v>
       </c>
-      <c r="E42" t="n" s="3">
+      <c r="E42" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F42" t="n" s="3">
+      <c r="F42" s="3" t="n">
         <v>10.0</v>
       </c>
       <c r="G42" t="n">
@@ -1190,19 +1190,19 @@
     </row>
     <row r="43">
       <c r="A43"/>
-      <c r="B43" t="n" s="3">
+      <c r="B43" s="3" t="n">
         <v>259.0</v>
       </c>
-      <c r="C43" t="n" s="3">
+      <c r="C43" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D43" t="n" s="3">
+      <c r="D43" s="3" t="n">
         <v>93.0</v>
       </c>
-      <c r="E43" t="n" s="3">
+      <c r="E43" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F43" t="n" s="3">
+      <c r="F43" s="3" t="n">
         <v>11.0</v>
       </c>
       <c r="G43" t="n">
@@ -1212,19 +1212,19 @@
     </row>
     <row r="44">
       <c r="A44"/>
-      <c r="B44" t="n" s="3">
+      <c r="B44" s="3" t="n">
         <v>250.0</v>
       </c>
-      <c r="C44" t="n" s="3">
+      <c r="C44" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D44" t="n" s="3">
+      <c r="D44" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="E44" t="n" s="3">
+      <c r="E44" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F44" t="n" s="3">
+      <c r="F44" s="3" t="n">
         <v>12.0</v>
       </c>
       <c r="G44" t="n">
@@ -1233,22 +1233,22 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n" s="3">
+      <c r="A45" s="3" t="n">
         <v>23.0</v>
       </c>
-      <c r="B45" t="n" s="3">
+      <c r="B45" s="3" t="n">
         <v>148.0</v>
       </c>
-      <c r="C45" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D45" t="n" s="3">
+      <c r="C45" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D45" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E45" t="n" s="3">
+      <c r="E45" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F45" t="n" s="3">
+      <c r="F45" s="3" t="n">
         <v>13.0</v>
       </c>
       <c r="G45" t="n">
@@ -1258,19 +1258,19 @@
     </row>
     <row r="46">
       <c r="A46"/>
-      <c r="B46" t="n" s="3">
+      <c r="B46" s="3" t="n">
         <v>332.0</v>
       </c>
-      <c r="C46" t="n" s="3">
+      <c r="C46" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="D46" t="n" s="3">
+      <c r="D46" s="3" t="n">
         <v>80.0</v>
       </c>
-      <c r="E46" t="n" s="3">
+      <c r="E46" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F46" t="n" s="3">
+      <c r="F46" s="3" t="n">
         <v>14.0</v>
       </c>
       <c r="G46" t="n">
@@ -1280,19 +1280,19 @@
     </row>
     <row r="47">
       <c r="A47"/>
-      <c r="B47" t="n" s="3">
+      <c r="B47" s="3" t="n">
         <v>322.0</v>
       </c>
-      <c r="C47" t="n" s="3">
+      <c r="C47" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D47" t="n" s="3">
+      <c r="D47" s="3" t="n">
         <v>79.0</v>
       </c>
-      <c r="E47" t="n" s="3">
+      <c r="E47" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F47" t="n" s="3">
+      <c r="F47" s="3" t="n">
         <v>15.0</v>
       </c>
       <c r="G47" t="n">
@@ -1301,22 +1301,22 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n" s="3">
+      <c r="A48" s="3" t="n">
         <v>21.0</v>
       </c>
-      <c r="B48" t="n" s="3">
+      <c r="B48" s="3" t="n">
         <v>191.0</v>
       </c>
-      <c r="C48" t="n" s="3">
+      <c r="C48" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D48" t="n" s="3">
+      <c r="D48" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="E48" t="n" s="3">
+      <c r="E48" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F48" t="n" s="3">
+      <c r="F48" s="3" t="n">
         <v>16.0</v>
       </c>
       <c r="G48" t="n">
@@ -1325,22 +1325,22 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n" s="3">
+      <c r="A49" s="3" t="n">
         <v>37.0</v>
       </c>
-      <c r="B49" t="n" s="3">
+      <c r="B49" s="3" t="n">
         <v>284.0</v>
       </c>
-      <c r="C49" t="n" s="3">
+      <c r="C49" s="3" t="n">
         <v>20.7</v>
       </c>
-      <c r="D49" t="n" s="3">
+      <c r="D49" s="3" t="n">
         <v>72.0</v>
       </c>
-      <c r="E49" t="n" s="3">
+      <c r="E49" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F49" t="n" s="3">
+      <c r="F49" s="3" t="n">
         <v>17.0</v>
       </c>
       <c r="G49" t="n">
@@ -1349,22 +1349,22 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n" s="3">
+      <c r="A50" s="3" t="n">
         <v>20.0</v>
       </c>
-      <c r="B50" t="n" s="3">
+      <c r="B50" s="3" t="n">
         <v>37.0</v>
       </c>
-      <c r="C50" t="n" s="3">
+      <c r="C50" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D50" t="n" s="3">
+      <c r="D50" s="3" t="n">
         <v>65.0</v>
       </c>
-      <c r="E50" t="n" s="3">
+      <c r="E50" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F50" t="n" s="3">
+      <c r="F50" s="3" t="n">
         <v>18.0</v>
       </c>
       <c r="G50" t="n">
@@ -1373,22 +1373,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n" s="3">
+      <c r="A51" s="3" t="n">
         <v>12.0</v>
       </c>
-      <c r="B51" t="n" s="3">
+      <c r="B51" s="3" t="n">
         <v>120.0</v>
       </c>
-      <c r="C51" t="n" s="3">
+      <c r="C51" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D51" t="n" s="3">
+      <c r="D51" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="E51" t="n" s="3">
+      <c r="E51" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F51" t="n" s="3">
+      <c r="F51" s="3" t="n">
         <v>19.0</v>
       </c>
       <c r="G51" t="n">
@@ -1397,22 +1397,22 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n" s="3">
+      <c r="A52" s="3" t="n">
         <v>13.0</v>
       </c>
-      <c r="B52" t="n" s="3">
+      <c r="B52" s="3" t="n">
         <v>137.0</v>
       </c>
-      <c r="C52" t="n" s="3">
+      <c r="C52" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D52" t="n" s="3">
+      <c r="D52" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E52" t="n" s="3">
+      <c r="E52" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F52" t="n" s="3">
+      <c r="F52" s="3" t="n">
         <v>20.0</v>
       </c>
       <c r="G52" t="n">
@@ -1422,19 +1422,19 @@
     </row>
     <row r="53">
       <c r="A53"/>
-      <c r="B53" t="n" s="3">
+      <c r="B53" s="3" t="n">
         <v>150.0</v>
       </c>
-      <c r="C53" t="n" s="3">
+      <c r="C53" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D53" t="n" s="3">
+      <c r="D53" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="E53" t="n" s="3">
+      <c r="E53" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F53" t="n" s="3">
+      <c r="F53" s="3" t="n">
         <v>21.0</v>
       </c>
       <c r="G53" t="n">
@@ -1444,19 +1444,19 @@
     </row>
     <row r="54">
       <c r="A54"/>
-      <c r="B54" t="n" s="3">
+      <c r="B54" s="3" t="n">
         <v>59.0</v>
       </c>
-      <c r="C54" t="n" s="3">
+      <c r="C54" s="3" t="n">
         <v>1.7</v>
       </c>
-      <c r="D54" t="n" s="3">
+      <c r="D54" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E54" t="n" s="3">
+      <c r="E54" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F54" t="n" s="3">
+      <c r="F54" s="3" t="n">
         <v>22.0</v>
       </c>
       <c r="G54" t="n">
@@ -1466,19 +1466,19 @@
     </row>
     <row r="55">
       <c r="A55"/>
-      <c r="B55" t="n" s="3">
+      <c r="B55" s="3" t="n">
         <v>91.0</v>
       </c>
-      <c r="C55" t="n" s="3">
+      <c r="C55" s="3" t="n">
         <v>4.6</v>
       </c>
-      <c r="D55" t="n" s="3">
+      <c r="D55" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E55" t="n" s="3">
+      <c r="E55" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F55" t="n" s="3">
+      <c r="F55" s="3" t="n">
         <v>23.0</v>
       </c>
       <c r="G55" t="n">
@@ -1488,19 +1488,19 @@
     </row>
     <row r="56">
       <c r="A56"/>
-      <c r="B56" t="n" s="3">
+      <c r="B56" s="3" t="n">
         <v>250.0</v>
       </c>
-      <c r="C56" t="n" s="3">
+      <c r="C56" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D56" t="n" s="3">
+      <c r="D56" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E56" t="n" s="3">
+      <c r="E56" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F56" t="n" s="3">
+      <c r="F56" s="3" t="n">
         <v>24.0</v>
       </c>
       <c r="G56" t="n">
@@ -1510,19 +1510,19 @@
     </row>
     <row r="57">
       <c r="A57"/>
-      <c r="B57" t="n" s="3">
+      <c r="B57" s="3" t="n">
         <v>135.0</v>
       </c>
-      <c r="C57" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D57" t="n" s="3">
+      <c r="C57" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D57" s="3" t="n">
         <v>75.0</v>
       </c>
-      <c r="E57" t="n" s="3">
+      <c r="E57" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F57" t="n" s="3">
+      <c r="F57" s="3" t="n">
         <v>25.0</v>
       </c>
       <c r="G57" t="n">
@@ -1532,19 +1532,19 @@
     </row>
     <row r="58">
       <c r="A58"/>
-      <c r="B58" t="n" s="3">
+      <c r="B58" s="3" t="n">
         <v>127.0</v>
       </c>
-      <c r="C58" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D58" t="n" s="3">
+      <c r="C58" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D58" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="E58" t="n" s="3">
+      <c r="E58" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F58" t="n" s="3">
+      <c r="F58" s="3" t="n">
         <v>26.0</v>
       </c>
       <c r="G58" t="n">
@@ -1554,19 +1554,19 @@
     </row>
     <row r="59">
       <c r="A59"/>
-      <c r="B59" t="n" s="3">
+      <c r="B59" s="3" t="n">
         <v>47.0</v>
       </c>
-      <c r="C59" t="n" s="3">
+      <c r="C59" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D59" t="n" s="3">
+      <c r="D59" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="E59" t="n" s="3">
+      <c r="E59" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F59" t="n" s="3">
+      <c r="F59" s="3" t="n">
         <v>27.0</v>
       </c>
       <c r="G59" t="n">
@@ -1576,19 +1576,19 @@
     </row>
     <row r="60">
       <c r="A60"/>
-      <c r="B60" t="n" s="3">
+      <c r="B60" s="3" t="n">
         <v>98.0</v>
       </c>
-      <c r="C60" t="n" s="3">
+      <c r="C60" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D60" t="n" s="3">
+      <c r="D60" s="3" t="n">
         <v>80.0</v>
       </c>
-      <c r="E60" t="n" s="3">
+      <c r="E60" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F60" t="n" s="3">
+      <c r="F60" s="3" t="n">
         <v>28.0</v>
       </c>
       <c r="G60" t="n">
@@ -1598,19 +1598,19 @@
     </row>
     <row r="61">
       <c r="A61"/>
-      <c r="B61" t="n" s="3">
+      <c r="B61" s="3" t="n">
         <v>31.0</v>
       </c>
-      <c r="C61" t="n" s="3">
+      <c r="C61" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D61" t="n" s="3">
+      <c r="D61" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="E61" t="n" s="3">
+      <c r="E61" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F61" t="n" s="3">
+      <c r="F61" s="3" t="n">
         <v>29.0</v>
       </c>
       <c r="G61" t="n">
@@ -1620,19 +1620,19 @@
     </row>
     <row r="62">
       <c r="A62"/>
-      <c r="B62" t="n" s="3">
+      <c r="B62" s="3" t="n">
         <v>138.0</v>
       </c>
-      <c r="C62" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D62" t="n" s="3">
+      <c r="C62" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D62" s="3" t="n">
         <v>83.0</v>
       </c>
-      <c r="E62" t="n" s="3">
+      <c r="E62" s="3" t="n">
         <v>6.0</v>
       </c>
-      <c r="F62" t="n" s="3">
+      <c r="F62" s="3" t="n">
         <v>30.0</v>
       </c>
       <c r="G62" t="n">
@@ -1641,22 +1641,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n" s="3">
+      <c r="A63" s="3" t="n">
         <v>135.0</v>
       </c>
-      <c r="B63" t="n" s="3">
+      <c r="B63" s="3" t="n">
         <v>269.0</v>
       </c>
-      <c r="C63" t="n" s="3">
+      <c r="C63" s="3" t="n">
         <v>4.1</v>
       </c>
-      <c r="D63" t="n" s="3">
+      <c r="D63" s="3" t="n">
         <v>84.0</v>
       </c>
-      <c r="E63" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F63" t="n" s="3">
+      <c r="E63" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F63" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="G63" t="n">
@@ -1665,22 +1665,22 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n" s="3">
+      <c r="A64" s="3" t="n">
         <v>49.0</v>
       </c>
-      <c r="B64" t="n" s="3">
+      <c r="B64" s="3" t="n">
         <v>248.0</v>
       </c>
-      <c r="C64" t="n" s="3">
+      <c r="C64" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D64" t="n" s="3">
+      <c r="D64" s="3" t="n">
         <v>85.0</v>
       </c>
-      <c r="E64" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F64" t="n" s="3">
+      <c r="E64" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F64" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="G64" t="n">
@@ -1689,22 +1689,22 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n" s="3">
+      <c r="A65" s="3" t="n">
         <v>32.0</v>
       </c>
-      <c r="B65" t="n" s="3">
+      <c r="B65" s="3" t="n">
         <v>236.0</v>
       </c>
-      <c r="C65" t="n" s="3">
+      <c r="C65" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D65" t="n" s="3">
+      <c r="D65" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E65" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F65" t="n" s="3">
+      <c r="E65" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F65" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="G65" t="n">
@@ -1714,19 +1714,19 @@
     </row>
     <row r="66">
       <c r="A66"/>
-      <c r="B66" t="n" s="3">
+      <c r="B66" s="3" t="n">
         <v>101.0</v>
       </c>
-      <c r="C66" t="n" s="3">
+      <c r="C66" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D66" t="n" s="3">
+      <c r="D66" s="3" t="n">
         <v>84.0</v>
       </c>
-      <c r="E66" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F66" t="n" s="3">
+      <c r="E66" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F66" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="G66" t="n">
@@ -1735,22 +1735,22 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n" s="3">
+      <c r="A67" s="3" t="n">
         <v>64.0</v>
       </c>
-      <c r="B67" t="n" s="3">
+      <c r="B67" s="3" t="n">
         <v>175.0</v>
       </c>
-      <c r="C67" t="n" s="3">
+      <c r="C67" s="3" t="n">
         <v>4.6</v>
       </c>
-      <c r="D67" t="n" s="3">
+      <c r="D67" s="3" t="n">
         <v>83.0</v>
       </c>
-      <c r="E67" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F67" t="n" s="3">
+      <c r="E67" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F67" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="G67" t="n">
@@ -1759,22 +1759,22 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n" s="3">
+      <c r="A68" s="3" t="n">
         <v>40.0</v>
       </c>
-      <c r="B68" t="n" s="3">
+      <c r="B68" s="3" t="n">
         <v>314.0</v>
       </c>
-      <c r="C68" t="n" s="3">
+      <c r="C68" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D68" t="n" s="3">
+      <c r="D68" s="3" t="n">
         <v>83.0</v>
       </c>
-      <c r="E68" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F68" t="n" s="3">
+      <c r="E68" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F68" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="G68" t="n">
@@ -1783,22 +1783,22 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n" s="3">
+      <c r="A69" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="B69" t="n" s="3">
+      <c r="B69" s="3" t="n">
         <v>276.0</v>
       </c>
-      <c r="C69" t="n" s="3">
+      <c r="C69" s="3" t="n">
         <v>5.1</v>
       </c>
-      <c r="D69" t="n" s="3">
+      <c r="D69" s="3" t="n">
         <v>88.0</v>
       </c>
-      <c r="E69" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F69" t="n" s="3">
+      <c r="E69" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F69" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="G69" t="n">
@@ -1807,22 +1807,22 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n" s="3">
+      <c r="A70" s="3" t="n">
         <v>97.0</v>
       </c>
-      <c r="B70" t="n" s="3">
+      <c r="B70" s="3" t="n">
         <v>267.0</v>
       </c>
-      <c r="C70" t="n" s="3">
+      <c r="C70" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D70" t="n" s="3">
+      <c r="D70" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="E70" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F70" t="n" s="3">
+      <c r="E70" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F70" s="3" t="n">
         <v>8.0</v>
       </c>
       <c r="G70" t="n">
@@ -1831,22 +1831,22 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n" s="3">
+      <c r="A71" s="3" t="n">
         <v>97.0</v>
       </c>
-      <c r="B71" t="n" s="3">
+      <c r="B71" s="3" t="n">
         <v>272.0</v>
       </c>
-      <c r="C71" t="n" s="3">
+      <c r="C71" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="D71" t="n" s="3">
+      <c r="D71" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="E71" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F71" t="n" s="3">
+      <c r="E71" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F71" s="3" t="n">
         <v>9.0</v>
       </c>
       <c r="G71" t="n">
@@ -1855,22 +1855,22 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n" s="3">
+      <c r="A72" s="3" t="n">
         <v>85.0</v>
       </c>
-      <c r="B72" t="n" s="3">
+      <c r="B72" s="3" t="n">
         <v>175.0</v>
       </c>
-      <c r="C72" t="n" s="3">
+      <c r="C72" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D72" t="n" s="3">
+      <c r="D72" s="3" t="n">
         <v>89.0</v>
       </c>
-      <c r="E72" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F72" t="n" s="3">
+      <c r="E72" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F72" s="3" t="n">
         <v>10.0</v>
       </c>
       <c r="G72" t="n">
@@ -1880,19 +1880,19 @@
     </row>
     <row r="73">
       <c r="A73"/>
-      <c r="B73" t="n" s="3">
+      <c r="B73" s="3" t="n">
         <v>139.0</v>
       </c>
-      <c r="C73" t="n" s="3">
+      <c r="C73" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D73" t="n" s="3">
+      <c r="D73" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E73" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F73" t="n" s="3">
+      <c r="E73" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F73" s="3" t="n">
         <v>11.0</v>
       </c>
       <c r="G73" t="n">
@@ -1901,22 +1901,22 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n" s="3">
+      <c r="A74" s="3" t="n">
         <v>10.0</v>
       </c>
-      <c r="B74" t="n" s="3">
+      <c r="B74" s="3" t="n">
         <v>264.0</v>
       </c>
-      <c r="C74" t="n" s="3">
+      <c r="C74" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="D74" t="n" s="3">
+      <c r="D74" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="E74" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F74" t="n" s="3">
+      <c r="E74" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F74" s="3" t="n">
         <v>12.0</v>
       </c>
       <c r="G74" t="n">
@@ -1925,22 +1925,22 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n" s="3">
+      <c r="A75" s="3" t="n">
         <v>27.0</v>
       </c>
-      <c r="B75" t="n" s="3">
+      <c r="B75" s="3" t="n">
         <v>175.0</v>
       </c>
-      <c r="C75" t="n" s="3">
+      <c r="C75" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D75" t="n" s="3">
+      <c r="D75" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E75" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F75" t="n" s="3">
+      <c r="E75" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F75" s="3" t="n">
         <v>13.0</v>
       </c>
       <c r="G75" t="n">
@@ -1950,19 +1950,19 @@
     </row>
     <row r="76">
       <c r="A76"/>
-      <c r="B76" t="n" s="3">
+      <c r="B76" s="3" t="n">
         <v>291.0</v>
       </c>
-      <c r="C76" t="n" s="3">
+      <c r="C76" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D76" t="n" s="3">
+      <c r="D76" s="3" t="n">
         <v>91.0</v>
       </c>
-      <c r="E76" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F76" t="n" s="3">
+      <c r="E76" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F76" s="3" t="n">
         <v>14.0</v>
       </c>
       <c r="G76" t="n">
@@ -1971,22 +1971,22 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B77" t="n" s="3">
+      <c r="A77" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B77" s="3" t="n">
         <v>48.0</v>
       </c>
-      <c r="C77" t="n" s="3">
+      <c r="C77" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="D77" t="n" s="3">
+      <c r="D77" s="3" t="n">
         <v>80.0</v>
       </c>
-      <c r="E77" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F77" t="n" s="3">
+      <c r="E77" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F77" s="3" t="n">
         <v>15.0</v>
       </c>
       <c r="G77" t="n">
@@ -1995,22 +1995,22 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n" s="3">
+      <c r="A78" s="3" t="n">
         <v>48.0</v>
       </c>
-      <c r="B78" t="n" s="3">
+      <c r="B78" s="3" t="n">
         <v>260.0</v>
       </c>
-      <c r="C78" t="n" s="3">
+      <c r="C78" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D78" t="n" s="3">
+      <c r="D78" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E78" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F78" t="n" s="3">
+      <c r="E78" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F78" s="3" t="n">
         <v>16.0</v>
       </c>
       <c r="G78" t="n">
@@ -2019,22 +2019,22 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n" s="3">
+      <c r="A79" s="3" t="n">
         <v>35.0</v>
       </c>
-      <c r="B79" t="n" s="3">
+      <c r="B79" s="3" t="n">
         <v>274.0</v>
       </c>
-      <c r="C79" t="n" s="3">
+      <c r="C79" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D79" t="n" s="3">
+      <c r="D79" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E79" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F79" t="n" s="3">
+      <c r="E79" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F79" s="3" t="n">
         <v>17.0</v>
       </c>
       <c r="G79" t="n">
@@ -2043,22 +2043,22 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n" s="3">
+      <c r="A80" s="3" t="n">
         <v>61.0</v>
       </c>
-      <c r="B80" t="n" s="3">
+      <c r="B80" s="3" t="n">
         <v>285.0</v>
       </c>
-      <c r="C80" t="n" s="3">
+      <c r="C80" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D80" t="n" s="3">
+      <c r="D80" s="3" t="n">
         <v>84.0</v>
       </c>
-      <c r="E80" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F80" t="n" s="3">
+      <c r="E80" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F80" s="3" t="n">
         <v>18.0</v>
       </c>
       <c r="G80" t="n">
@@ -2067,22 +2067,22 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n" s="3">
+      <c r="A81" s="3" t="n">
         <v>79.0</v>
       </c>
-      <c r="B81" t="n" s="3">
+      <c r="B81" s="3" t="n">
         <v>187.0</v>
       </c>
-      <c r="C81" t="n" s="3">
+      <c r="C81" s="3" t="n">
         <v>5.1</v>
       </c>
-      <c r="D81" t="n" s="3">
+      <c r="D81" s="3" t="n">
         <v>87.0</v>
       </c>
-      <c r="E81" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F81" t="n" s="3">
+      <c r="E81" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F81" s="3" t="n">
         <v>19.0</v>
       </c>
       <c r="G81" t="n">
@@ -2091,22 +2091,22 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n" s="3">
+      <c r="A82" s="3" t="n">
         <v>63.0</v>
       </c>
-      <c r="B82" t="n" s="3">
+      <c r="B82" s="3" t="n">
         <v>220.0</v>
       </c>
-      <c r="C82" t="n" s="3">
+      <c r="C82" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D82" t="n" s="3">
+      <c r="D82" s="3" t="n">
         <v>85.0</v>
       </c>
-      <c r="E82" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F82" t="n" s="3">
+      <c r="E82" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F82" s="3" t="n">
         <v>20.0</v>
       </c>
       <c r="G82" t="n">
@@ -2115,22 +2115,22 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n" s="3">
+      <c r="A83" s="3" t="n">
         <v>16.0</v>
       </c>
-      <c r="B83" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C83" t="n" s="3">
+      <c r="B83" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C83" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D83" t="n" s="3">
+      <c r="D83" s="3" t="n">
         <v>74.0</v>
       </c>
-      <c r="E83" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F83" t="n" s="3">
+      <c r="E83" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F83" s="3" t="n">
         <v>21.0</v>
       </c>
       <c r="G83" t="n">
@@ -2140,19 +2140,19 @@
     </row>
     <row r="84">
       <c r="A84"/>
-      <c r="B84" t="n" s="3">
+      <c r="B84" s="3" t="n">
         <v>258.0</v>
       </c>
-      <c r="C84" t="n" s="3">
+      <c r="C84" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D84" t="n" s="3">
+      <c r="D84" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E84" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F84" t="n" s="3">
+      <c r="E84" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F84" s="3" t="n">
         <v>22.0</v>
       </c>
       <c r="G84" t="n">
@@ -2162,19 +2162,19 @@
     </row>
     <row r="85">
       <c r="A85"/>
-      <c r="B85" t="n" s="3">
+      <c r="B85" s="3" t="n">
         <v>295.0</v>
       </c>
-      <c r="C85" t="n" s="3">
+      <c r="C85" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D85" t="n" s="3">
+      <c r="D85" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E85" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F85" t="n" s="3">
+      <c r="E85" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F85" s="3" t="n">
         <v>23.0</v>
       </c>
       <c r="G85" t="n">
@@ -2183,22 +2183,22 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n" s="3">
+      <c r="A86" s="3" t="n">
         <v>80.0</v>
       </c>
-      <c r="B86" t="n" s="3">
+      <c r="B86" s="3" t="n">
         <v>294.0</v>
       </c>
-      <c r="C86" t="n" s="3">
+      <c r="C86" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D86" t="n" s="3">
+      <c r="D86" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="E86" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F86" t="n" s="3">
+      <c r="E86" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F86" s="3" t="n">
         <v>24.0</v>
       </c>
       <c r="G86" t="n">
@@ -2207,22 +2207,22 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n" s="3">
+      <c r="A87" s="3" t="n">
         <v>108.0</v>
       </c>
-      <c r="B87" t="n" s="3">
+      <c r="B87" s="3" t="n">
         <v>223.0</v>
       </c>
-      <c r="C87" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D87" t="n" s="3">
+      <c r="C87" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D87" s="3" t="n">
         <v>85.0</v>
       </c>
-      <c r="E87" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F87" t="n" s="3">
+      <c r="E87" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F87" s="3" t="n">
         <v>25.0</v>
       </c>
       <c r="G87" t="n">
@@ -2231,22 +2231,22 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n" s="3">
+      <c r="A88" s="3" t="n">
         <v>20.0</v>
       </c>
-      <c r="B88" t="n" s="3">
+      <c r="B88" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="C88" t="n" s="3">
+      <c r="C88" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D88" t="n" s="3">
+      <c r="D88" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E88" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F88" t="n" s="3">
+      <c r="E88" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F88" s="3" t="n">
         <v>26.0</v>
       </c>
       <c r="G88" t="n">
@@ -2255,22 +2255,22 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n" s="3">
+      <c r="A89" s="3" t="n">
         <v>52.0</v>
       </c>
-      <c r="B89" t="n" s="3">
+      <c r="B89" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="C89" t="n" s="3">
+      <c r="C89" s="3" t="n">
         <v>12.0</v>
       </c>
-      <c r="D89" t="n" s="3">
+      <c r="D89" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="E89" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F89" t="n" s="3">
+      <c r="E89" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F89" s="3" t="n">
         <v>27.0</v>
       </c>
       <c r="G89" t="n">
@@ -2279,22 +2279,22 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n" s="3">
+      <c r="A90" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="B90" t="n" s="3">
+      <c r="B90" s="3" t="n">
         <v>213.0</v>
       </c>
-      <c r="C90" t="n" s="3">
+      <c r="C90" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D90" t="n" s="3">
+      <c r="D90" s="3" t="n">
         <v>88.0</v>
       </c>
-      <c r="E90" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F90" t="n" s="3">
+      <c r="E90" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F90" s="3" t="n">
         <v>28.0</v>
       </c>
       <c r="G90" t="n">
@@ -2303,22 +2303,22 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n" s="3">
+      <c r="A91" s="3" t="n">
         <v>50.0</v>
       </c>
-      <c r="B91" t="n" s="3">
+      <c r="B91" s="3" t="n">
         <v>275.0</v>
       </c>
-      <c r="C91" t="n" s="3">
+      <c r="C91" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D91" t="n" s="3">
+      <c r="D91" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="E91" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F91" t="n" s="3">
+      <c r="E91" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F91" s="3" t="n">
         <v>29.0</v>
       </c>
       <c r="G91" t="n">
@@ -2327,22 +2327,22 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n" s="3">
+      <c r="A92" s="3" t="n">
         <v>64.0</v>
       </c>
-      <c r="B92" t="n" s="3">
+      <c r="B92" s="3" t="n">
         <v>253.0</v>
       </c>
-      <c r="C92" t="n" s="3">
+      <c r="C92" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D92" t="n" s="3">
+      <c r="D92" s="3" t="n">
         <v>83.0</v>
       </c>
-      <c r="E92" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F92" t="n" s="3">
+      <c r="E92" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F92" s="3" t="n">
         <v>30.0</v>
       </c>
       <c r="G92" t="n">
@@ -2351,22 +2351,22 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n" s="3">
+      <c r="A93" s="3" t="n">
         <v>59.0</v>
       </c>
-      <c r="B93" t="n" s="3">
+      <c r="B93" s="3" t="n">
         <v>254.0</v>
       </c>
-      <c r="C93" t="n" s="3">
+      <c r="C93" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D93" t="n" s="3">
+      <c r="D93" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E93" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="F93" t="n" s="3">
+      <c r="E93" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="F93" s="3" t="n">
         <v>31.0</v>
       </c>
       <c r="G93" t="n">
@@ -2375,22 +2375,22 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n" s="3">
+      <c r="A94" s="3" t="n">
         <v>39.0</v>
       </c>
-      <c r="B94" t="n" s="3">
+      <c r="B94" s="3" t="n">
         <v>83.0</v>
       </c>
-      <c r="C94" t="n" s="3">
+      <c r="C94" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D94" t="n" s="3">
+      <c r="D94" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E94" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F94" t="n" s="3">
+      <c r="E94" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F94" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="G94" t="n">
@@ -2399,22 +2399,22 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n" s="3">
+      <c r="A95" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="B95" t="n" s="3">
+      <c r="B95" s="3" t="n">
         <v>24.0</v>
       </c>
-      <c r="C95" t="n" s="3">
+      <c r="C95" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="D95" t="n" s="3">
+      <c r="D95" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E95" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F95" t="n" s="3">
+      <c r="E95" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F95" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="G95" t="n">
@@ -2423,22 +2423,22 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n" s="3">
+      <c r="A96" s="3" t="n">
         <v>16.0</v>
       </c>
-      <c r="B96" t="n" s="3">
+      <c r="B96" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="C96" t="n" s="3">
+      <c r="C96" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D96" t="n" s="3">
+      <c r="D96" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E96" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F96" t="n" s="3">
+      <c r="E96" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F96" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="G96" t="n">
@@ -2447,20 +2447,20 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n" s="3">
+      <c r="A97" s="3" t="n">
         <v>78.0</v>
       </c>
       <c r="B97"/>
-      <c r="C97" t="n" s="3">
+      <c r="C97" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D97" t="n" s="3">
+      <c r="D97" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="E97" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F97" t="n" s="3">
+      <c r="E97" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F97" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="G97" t="n">
@@ -2469,20 +2469,20 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n" s="3">
+      <c r="A98" s="3" t="n">
         <v>35.0</v>
       </c>
       <c r="B98"/>
-      <c r="C98" t="n" s="3">
+      <c r="C98" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D98" t="n" s="3">
+      <c r="D98" s="3" t="n">
         <v>85.0</v>
       </c>
-      <c r="E98" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F98" t="n" s="3">
+      <c r="E98" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F98" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="G98" t="n">
@@ -2491,20 +2491,20 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n" s="3">
+      <c r="A99" s="3" t="n">
         <v>66.0</v>
       </c>
       <c r="B99"/>
-      <c r="C99" t="n" s="3">
+      <c r="C99" s="3" t="n">
         <v>4.6</v>
       </c>
-      <c r="D99" t="n" s="3">
+      <c r="D99" s="3" t="n">
         <v>87.0</v>
       </c>
-      <c r="E99" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F99" t="n" s="3">
+      <c r="E99" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F99" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="G99" t="n">
@@ -2513,22 +2513,22 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n" s="3">
+      <c r="A100" s="3" t="n">
         <v>122.0</v>
       </c>
-      <c r="B100" t="n" s="3">
+      <c r="B100" s="3" t="n">
         <v>255.0</v>
       </c>
-      <c r="C100" t="n" s="3">
+      <c r="C100" s="3" t="n">
         <v>4.0</v>
       </c>
-      <c r="D100" t="n" s="3">
+      <c r="D100" s="3" t="n">
         <v>89.0</v>
       </c>
-      <c r="E100" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F100" t="n" s="3">
+      <c r="E100" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F100" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="G100" t="n">
@@ -2537,22 +2537,22 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n" s="3">
+      <c r="A101" s="3" t="n">
         <v>89.0</v>
       </c>
-      <c r="B101" t="n" s="3">
+      <c r="B101" s="3" t="n">
         <v>229.0</v>
       </c>
-      <c r="C101" t="n" s="3">
+      <c r="C101" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D101" t="n" s="3">
+      <c r="D101" s="3" t="n">
         <v>90.0</v>
       </c>
-      <c r="E101" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F101" t="n" s="3">
+      <c r="E101" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F101" s="3" t="n">
         <v>8.0</v>
       </c>
       <c r="G101" t="n">
@@ -2561,22 +2561,22 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n" s="3">
+      <c r="A102" s="3" t="n">
         <v>110.0</v>
       </c>
-      <c r="B102" t="n" s="3">
+      <c r="B102" s="3" t="n">
         <v>207.0</v>
       </c>
-      <c r="C102" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D102" t="n" s="3">
+      <c r="C102" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D102" s="3" t="n">
         <v>90.0</v>
       </c>
-      <c r="E102" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F102" t="n" s="3">
+      <c r="E102" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F102" s="3" t="n">
         <v>9.0</v>
       </c>
       <c r="G102" t="n">
@@ -2586,19 +2586,19 @@
     </row>
     <row r="103">
       <c r="A103"/>
-      <c r="B103" t="n" s="3">
+      <c r="B103" s="3" t="n">
         <v>222.0</v>
       </c>
-      <c r="C103" t="n" s="3">
+      <c r="C103" s="3" t="n">
         <v>8.6</v>
       </c>
-      <c r="D103" t="n" s="3">
+      <c r="D103" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="E103" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F103" t="n" s="3">
+      <c r="E103" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F103" s="3" t="n">
         <v>10.0</v>
       </c>
       <c r="G103" t="n">
@@ -2608,19 +2608,19 @@
     </row>
     <row r="104">
       <c r="A104"/>
-      <c r="B104" t="n" s="3">
+      <c r="B104" s="3" t="n">
         <v>137.0</v>
       </c>
-      <c r="C104" t="n" s="3">
+      <c r="C104" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D104" t="n" s="3">
+      <c r="D104" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="E104" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F104" t="n" s="3">
+      <c r="E104" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F104" s="3" t="n">
         <v>11.0</v>
       </c>
       <c r="G104" t="n">
@@ -2629,22 +2629,22 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n" s="3">
+      <c r="A105" s="3" t="n">
         <v>44.0</v>
       </c>
-      <c r="B105" t="n" s="3">
+      <c r="B105" s="3" t="n">
         <v>192.0</v>
       </c>
-      <c r="C105" t="n" s="3">
+      <c r="C105" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D105" t="n" s="3">
+      <c r="D105" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="E105" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F105" t="n" s="3">
+      <c r="E105" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F105" s="3" t="n">
         <v>12.0</v>
       </c>
       <c r="G105" t="n">
@@ -2653,22 +2653,22 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n" s="3">
+      <c r="A106" s="3" t="n">
         <v>28.0</v>
       </c>
-      <c r="B106" t="n" s="3">
+      <c r="B106" s="3" t="n">
         <v>273.0</v>
       </c>
-      <c r="C106" t="n" s="3">
+      <c r="C106" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D106" t="n" s="3">
+      <c r="D106" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E106" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F106" t="n" s="3">
+      <c r="E106" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F106" s="3" t="n">
         <v>13.0</v>
       </c>
       <c r="G106" t="n">
@@ -2677,22 +2677,22 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n" s="3">
+      <c r="A107" s="3" t="n">
         <v>65.0</v>
       </c>
-      <c r="B107" t="n" s="3">
+      <c r="B107" s="3" t="n">
         <v>157.0</v>
       </c>
-      <c r="C107" t="n" s="3">
+      <c r="C107" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D107" t="n" s="3">
+      <c r="D107" s="3" t="n">
         <v>80.0</v>
       </c>
-      <c r="E107" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F107" t="n" s="3">
+      <c r="E107" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F107" s="3" t="n">
         <v>14.0</v>
       </c>
       <c r="G107" t="n">
@@ -2702,19 +2702,19 @@
     </row>
     <row r="108">
       <c r="A108"/>
-      <c r="B108" t="n" s="3">
+      <c r="B108" s="3" t="n">
         <v>64.0</v>
       </c>
-      <c r="C108" t="n" s="3">
+      <c r="C108" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D108" t="n" s="3">
+      <c r="D108" s="3" t="n">
         <v>79.0</v>
       </c>
-      <c r="E108" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F108" t="n" s="3">
+      <c r="E108" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F108" s="3" t="n">
         <v>15.0</v>
       </c>
       <c r="G108" t="n">
@@ -2723,22 +2723,22 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n" s="3">
+      <c r="A109" s="3" t="n">
         <v>22.0</v>
       </c>
-      <c r="B109" t="n" s="3">
+      <c r="B109" s="3" t="n">
         <v>71.0</v>
       </c>
-      <c r="C109" t="n" s="3">
+      <c r="C109" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D109" t="n" s="3">
+      <c r="D109" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="E109" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F109" t="n" s="3">
+      <c r="E109" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F109" s="3" t="n">
         <v>16.0</v>
       </c>
       <c r="G109" t="n">
@@ -2747,22 +2747,22 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n" s="3">
+      <c r="A110" s="3" t="n">
         <v>59.0</v>
       </c>
-      <c r="B110" t="n" s="3">
+      <c r="B110" s="3" t="n">
         <v>51.0</v>
       </c>
-      <c r="C110" t="n" s="3">
+      <c r="C110" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D110" t="n" s="3">
+      <c r="D110" s="3" t="n">
         <v>79.0</v>
       </c>
-      <c r="E110" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F110" t="n" s="3">
+      <c r="E110" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F110" s="3" t="n">
         <v>17.0</v>
       </c>
       <c r="G110" t="n">
@@ -2771,22 +2771,22 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n" s="3">
+      <c r="A111" s="3" t="n">
         <v>23.0</v>
       </c>
-      <c r="B111" t="n" s="3">
+      <c r="B111" s="3" t="n">
         <v>115.0</v>
       </c>
-      <c r="C111" t="n" s="3">
+      <c r="C111" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D111" t="n" s="3">
+      <c r="D111" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E111" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F111" t="n" s="3">
+      <c r="E111" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F111" s="3" t="n">
         <v>18.0</v>
       </c>
       <c r="G111" t="n">
@@ -2795,22 +2795,22 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n" s="3">
+      <c r="A112" s="3" t="n">
         <v>31.0</v>
       </c>
-      <c r="B112" t="n" s="3">
+      <c r="B112" s="3" t="n">
         <v>244.0</v>
       </c>
-      <c r="C112" t="n" s="3">
+      <c r="C112" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D112" t="n" s="3">
+      <c r="D112" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="E112" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F112" t="n" s="3">
+      <c r="E112" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F112" s="3" t="n">
         <v>19.0</v>
       </c>
       <c r="G112" t="n">
@@ -2819,22 +2819,22 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n" s="3">
+      <c r="A113" s="3" t="n">
         <v>44.0</v>
       </c>
-      <c r="B113" t="n" s="3">
+      <c r="B113" s="3" t="n">
         <v>190.0</v>
       </c>
-      <c r="C113" t="n" s="3">
+      <c r="C113" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D113" t="n" s="3">
+      <c r="D113" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="E113" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F113" t="n" s="3">
+      <c r="E113" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F113" s="3" t="n">
         <v>20.0</v>
       </c>
       <c r="G113" t="n">
@@ -2843,22 +2843,22 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n" s="3">
+      <c r="A114" s="3" t="n">
         <v>21.0</v>
       </c>
-      <c r="B114" t="n" s="3">
+      <c r="B114" s="3" t="n">
         <v>259.0</v>
       </c>
-      <c r="C114" t="n" s="3">
+      <c r="C114" s="3" t="n">
         <v>15.5</v>
       </c>
-      <c r="D114" t="n" s="3">
+      <c r="D114" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="E114" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F114" t="n" s="3">
+      <c r="E114" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F114" s="3" t="n">
         <v>21.0</v>
       </c>
       <c r="G114" t="n">
@@ -2867,22 +2867,22 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n" s="3">
+      <c r="A115" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="B115" t="n" s="3">
+      <c r="B115" s="3" t="n">
         <v>36.0</v>
       </c>
-      <c r="C115" t="n" s="3">
+      <c r="C115" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="D115" t="n" s="3">
+      <c r="D115" s="3" t="n">
         <v>72.0</v>
       </c>
-      <c r="E115" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F115" t="n" s="3">
+      <c r="E115" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F115" s="3" t="n">
         <v>22.0</v>
       </c>
       <c r="G115" t="n">
@@ -2892,19 +2892,19 @@
     </row>
     <row r="116">
       <c r="A116"/>
-      <c r="B116" t="n" s="3">
+      <c r="B116" s="3" t="n">
         <v>255.0</v>
       </c>
-      <c r="C116" t="n" s="3">
+      <c r="C116" s="3" t="n">
         <v>12.6</v>
       </c>
-      <c r="D116" t="n" s="3">
+      <c r="D116" s="3" t="n">
         <v>75.0</v>
       </c>
-      <c r="E116" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F116" t="n" s="3">
+      <c r="E116" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F116" s="3" t="n">
         <v>23.0</v>
       </c>
       <c r="G116" t="n">
@@ -2913,22 +2913,22 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n" s="3">
+      <c r="A117" s="3" t="n">
         <v>45.0</v>
       </c>
-      <c r="B117" t="n" s="3">
+      <c r="B117" s="3" t="n">
         <v>212.0</v>
       </c>
-      <c r="C117" t="n" s="3">
+      <c r="C117" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D117" t="n" s="3">
+      <c r="D117" s="3" t="n">
         <v>79.0</v>
       </c>
-      <c r="E117" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F117" t="n" s="3">
+      <c r="E117" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F117" s="3" t="n">
         <v>24.0</v>
       </c>
       <c r="G117" t="n">
@@ -2937,22 +2937,22 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n" s="3">
+      <c r="A118" s="3" t="n">
         <v>168.0</v>
       </c>
-      <c r="B118" t="n" s="3">
+      <c r="B118" s="3" t="n">
         <v>238.0</v>
       </c>
-      <c r="C118" t="n" s="3">
+      <c r="C118" s="3" t="n">
         <v>3.4</v>
       </c>
-      <c r="D118" t="n" s="3">
+      <c r="D118" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E118" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F118" t="n" s="3">
+      <c r="E118" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F118" s="3" t="n">
         <v>25.0</v>
       </c>
       <c r="G118" t="n">
@@ -2961,22 +2961,22 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n" s="3">
+      <c r="A119" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="B119" t="n" s="3">
+      <c r="B119" s="3" t="n">
         <v>215.0</v>
       </c>
-      <c r="C119" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D119" t="n" s="3">
+      <c r="C119" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D119" s="3" t="n">
         <v>86.0</v>
       </c>
-      <c r="E119" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F119" t="n" s="3">
+      <c r="E119" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F119" s="3" t="n">
         <v>26.0</v>
       </c>
       <c r="G119" t="n">
@@ -2986,19 +2986,19 @@
     </row>
     <row r="120">
       <c r="A120"/>
-      <c r="B120" t="n" s="3">
+      <c r="B120" s="3" t="n">
         <v>153.0</v>
       </c>
-      <c r="C120" t="n" s="3">
+      <c r="C120" s="3" t="n">
         <v>5.7</v>
       </c>
-      <c r="D120" t="n" s="3">
+      <c r="D120" s="3" t="n">
         <v>88.0</v>
       </c>
-      <c r="E120" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F120" t="n" s="3">
+      <c r="E120" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F120" s="3" t="n">
         <v>27.0</v>
       </c>
       <c r="G120" t="n">
@@ -3007,22 +3007,22 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n" s="3">
+      <c r="A121" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="B121" t="n" s="3">
+      <c r="B121" s="3" t="n">
         <v>203.0</v>
       </c>
-      <c r="C121" t="n" s="3">
+      <c r="C121" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D121" t="n" s="3">
+      <c r="D121" s="3" t="n">
         <v>97.0</v>
       </c>
-      <c r="E121" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F121" t="n" s="3">
+      <c r="E121" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F121" s="3" t="n">
         <v>28.0</v>
       </c>
       <c r="G121" t="n">
@@ -3031,22 +3031,22 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n" s="3">
+      <c r="A122" s="3" t="n">
         <v>118.0</v>
       </c>
-      <c r="B122" t="n" s="3">
+      <c r="B122" s="3" t="n">
         <v>225.0</v>
       </c>
-      <c r="C122" t="n" s="3">
+      <c r="C122" s="3" t="n">
         <v>2.3</v>
       </c>
-      <c r="D122" t="n" s="3">
+      <c r="D122" s="3" t="n">
         <v>94.0</v>
       </c>
-      <c r="E122" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F122" t="n" s="3">
+      <c r="E122" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F122" s="3" t="n">
         <v>29.0</v>
       </c>
       <c r="G122" t="n">
@@ -3055,22 +3055,22 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n" s="3">
+      <c r="A123" s="3" t="n">
         <v>84.0</v>
       </c>
-      <c r="B123" t="n" s="3">
+      <c r="B123" s="3" t="n">
         <v>237.0</v>
       </c>
-      <c r="C123" t="n" s="3">
+      <c r="C123" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D123" t="n" s="3">
+      <c r="D123" s="3" t="n">
         <v>96.0</v>
       </c>
-      <c r="E123" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F123" t="n" s="3">
+      <c r="E123" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F123" s="3" t="n">
         <v>30.0</v>
       </c>
       <c r="G123" t="n">
@@ -3079,22 +3079,22 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n" s="3">
+      <c r="A124" s="3" t="n">
         <v>85.0</v>
       </c>
-      <c r="B124" t="n" s="3">
+      <c r="B124" s="3" t="n">
         <v>188.0</v>
       </c>
-      <c r="C124" t="n" s="3">
+      <c r="C124" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D124" t="n" s="3">
+      <c r="D124" s="3" t="n">
         <v>94.0</v>
       </c>
-      <c r="E124" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="F124" t="n" s="3">
+      <c r="E124" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F124" s="3" t="n">
         <v>31.0</v>
       </c>
       <c r="G124" t="n">
@@ -3103,22 +3103,22 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n" s="3">
+      <c r="A125" s="3" t="n">
         <v>96.0</v>
       </c>
-      <c r="B125" t="n" s="3">
+      <c r="B125" s="3" t="n">
         <v>167.0</v>
       </c>
-      <c r="C125" t="n" s="3">
+      <c r="C125" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D125" t="n" s="3">
+      <c r="D125" s="3" t="n">
         <v>91.0</v>
       </c>
-      <c r="E125" t="n" s="3">
+      <c r="E125" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F125" t="n" s="3">
+      <c r="F125" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="G125" t="n">
@@ -3127,22 +3127,22 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n" s="3">
+      <c r="A126" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="B126" t="n" s="3">
+      <c r="B126" s="3" t="n">
         <v>197.0</v>
       </c>
-      <c r="C126" t="n" s="3">
+      <c r="C126" s="3" t="n">
         <v>5.1</v>
       </c>
-      <c r="D126" t="n" s="3">
+      <c r="D126" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="E126" t="n" s="3">
+      <c r="E126" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F126" t="n" s="3">
+      <c r="F126" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="G126" t="n">
@@ -3151,22 +3151,22 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n" s="3">
+      <c r="A127" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="B127" t="n" s="3">
+      <c r="B127" s="3" t="n">
         <v>183.0</v>
       </c>
-      <c r="C127" t="n" s="3">
+      <c r="C127" s="3" t="n">
         <v>2.8</v>
       </c>
-      <c r="D127" t="n" s="3">
+      <c r="D127" s="3" t="n">
         <v>93.0</v>
       </c>
-      <c r="E127" t="n" s="3">
+      <c r="E127" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F127" t="n" s="3">
+      <c r="F127" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="G127" t="n">
@@ -3175,22 +3175,22 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n" s="3">
+      <c r="A128" s="3" t="n">
         <v>91.0</v>
       </c>
-      <c r="B128" t="n" s="3">
+      <c r="B128" s="3" t="n">
         <v>189.0</v>
       </c>
-      <c r="C128" t="n" s="3">
+      <c r="C128" s="3" t="n">
         <v>4.6</v>
       </c>
-      <c r="D128" t="n" s="3">
+      <c r="D128" s="3" t="n">
         <v>93.0</v>
       </c>
-      <c r="E128" t="n" s="3">
+      <c r="E128" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F128" t="n" s="3">
+      <c r="F128" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="G128" t="n">
@@ -3199,22 +3199,22 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n" s="3">
+      <c r="A129" s="3" t="n">
         <v>47.0</v>
       </c>
-      <c r="B129" t="n" s="3">
+      <c r="B129" s="3" t="n">
         <v>95.0</v>
       </c>
-      <c r="C129" t="n" s="3">
+      <c r="C129" s="3" t="n">
         <v>7.4</v>
       </c>
-      <c r="D129" t="n" s="3">
+      <c r="D129" s="3" t="n">
         <v>87.0</v>
       </c>
-      <c r="E129" t="n" s="3">
+      <c r="E129" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F129" t="n" s="3">
+      <c r="F129" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="G129" t="n">
@@ -3223,22 +3223,22 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n" s="3">
+      <c r="A130" s="3" t="n">
         <v>32.0</v>
       </c>
-      <c r="B130" t="n" s="3">
+      <c r="B130" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="C130" t="n" s="3">
+      <c r="C130" s="3" t="n">
         <v>15.5</v>
       </c>
-      <c r="D130" t="n" s="3">
+      <c r="D130" s="3" t="n">
         <v>84.0</v>
       </c>
-      <c r="E130" t="n" s="3">
+      <c r="E130" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F130" t="n" s="3">
+      <c r="F130" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="G130" t="n">
@@ -3247,22 +3247,22 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n" s="3">
+      <c r="A131" s="3" t="n">
         <v>20.0</v>
       </c>
-      <c r="B131" t="n" s="3">
+      <c r="B131" s="3" t="n">
         <v>252.0</v>
       </c>
-      <c r="C131" t="n" s="3">
+      <c r="C131" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D131" t="n" s="3">
+      <c r="D131" s="3" t="n">
         <v>80.0</v>
       </c>
-      <c r="E131" t="n" s="3">
+      <c r="E131" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F131" t="n" s="3">
+      <c r="F131" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="G131" t="n">
@@ -3271,22 +3271,22 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n" s="3">
+      <c r="A132" s="3" t="n">
         <v>23.0</v>
       </c>
-      <c r="B132" t="n" s="3">
+      <c r="B132" s="3" t="n">
         <v>220.0</v>
       </c>
-      <c r="C132" t="n" s="3">
+      <c r="C132" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D132" t="n" s="3">
+      <c r="D132" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="E132" t="n" s="3">
+      <c r="E132" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F132" t="n" s="3">
+      <c r="F132" s="3" t="n">
         <v>8.0</v>
       </c>
       <c r="G132" t="n">
@@ -3295,22 +3295,22 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n" s="3">
+      <c r="A133" s="3" t="n">
         <v>21.0</v>
       </c>
-      <c r="B133" t="n" s="3">
+      <c r="B133" s="3" t="n">
         <v>230.0</v>
       </c>
-      <c r="C133" t="n" s="3">
+      <c r="C133" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D133" t="n" s="3">
+      <c r="D133" s="3" t="n">
         <v>75.0</v>
       </c>
-      <c r="E133" t="n" s="3">
+      <c r="E133" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F133" t="n" s="3">
+      <c r="F133" s="3" t="n">
         <v>9.0</v>
       </c>
       <c r="G133" t="n">
@@ -3319,22 +3319,22 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n" s="3">
+      <c r="A134" s="3" t="n">
         <v>24.0</v>
       </c>
-      <c r="B134" t="n" s="3">
+      <c r="B134" s="3" t="n">
         <v>259.0</v>
       </c>
-      <c r="C134" t="n" s="3">
+      <c r="C134" s="3" t="n">
         <v>9.7</v>
       </c>
-      <c r="D134" t="n" s="3">
+      <c r="D134" s="3" t="n">
         <v>73.0</v>
       </c>
-      <c r="E134" t="n" s="3">
+      <c r="E134" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F134" t="n" s="3">
+      <c r="F134" s="3" t="n">
         <v>10.0</v>
       </c>
       <c r="G134" t="n">
@@ -3343,22 +3343,22 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n" s="3">
+      <c r="A135" s="3" t="n">
         <v>44.0</v>
       </c>
-      <c r="B135" t="n" s="3">
+      <c r="B135" s="3" t="n">
         <v>236.0</v>
       </c>
-      <c r="C135" t="n" s="3">
+      <c r="C135" s="3" t="n">
         <v>14.9</v>
       </c>
-      <c r="D135" t="n" s="3">
+      <c r="D135" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E135" t="n" s="3">
+      <c r="E135" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F135" t="n" s="3">
+      <c r="F135" s="3" t="n">
         <v>11.0</v>
       </c>
       <c r="G135" t="n">
@@ -3367,22 +3367,22 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n" s="3">
+      <c r="A136" s="3" t="n">
         <v>21.0</v>
       </c>
-      <c r="B136" t="n" s="3">
+      <c r="B136" s="3" t="n">
         <v>259.0</v>
       </c>
-      <c r="C136" t="n" s="3">
+      <c r="C136" s="3" t="n">
         <v>15.5</v>
       </c>
-      <c r="D136" t="n" s="3">
+      <c r="D136" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E136" t="n" s="3">
+      <c r="E136" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F136" t="n" s="3">
+      <c r="F136" s="3" t="n">
         <v>12.0</v>
       </c>
       <c r="G136" t="n">
@@ -3391,22 +3391,22 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n" s="3">
+      <c r="A137" s="3" t="n">
         <v>28.0</v>
       </c>
-      <c r="B137" t="n" s="3">
+      <c r="B137" s="3" t="n">
         <v>238.0</v>
       </c>
-      <c r="C137" t="n" s="3">
+      <c r="C137" s="3" t="n">
         <v>6.3</v>
       </c>
-      <c r="D137" t="n" s="3">
+      <c r="D137" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="E137" t="n" s="3">
+      <c r="E137" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F137" t="n" s="3">
+      <c r="F137" s="3" t="n">
         <v>13.0</v>
       </c>
       <c r="G137" t="n">
@@ -3415,22 +3415,22 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n" s="3">
+      <c r="A138" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="B138" t="n" s="3">
+      <c r="B138" s="3" t="n">
         <v>24.0</v>
       </c>
-      <c r="C138" t="n" s="3">
+      <c r="C138" s="3" t="n">
         <v>10.9</v>
       </c>
-      <c r="D138" t="n" s="3">
+      <c r="D138" s="3" t="n">
         <v>71.0</v>
       </c>
-      <c r="E138" t="n" s="3">
+      <c r="E138" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F138" t="n" s="3">
+      <c r="F138" s="3" t="n">
         <v>14.0</v>
       </c>
       <c r="G138" t="n">
@@ -3439,22 +3439,22 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n" s="3">
+      <c r="A139" s="3" t="n">
         <v>13.0</v>
       </c>
-      <c r="B139" t="n" s="3">
+      <c r="B139" s="3" t="n">
         <v>112.0</v>
       </c>
-      <c r="C139" t="n" s="3">
+      <c r="C139" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D139" t="n" s="3">
+      <c r="D139" s="3" t="n">
         <v>71.0</v>
       </c>
-      <c r="E139" t="n" s="3">
+      <c r="E139" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F139" t="n" s="3">
+      <c r="F139" s="3" t="n">
         <v>15.0</v>
       </c>
       <c r="G139" t="n">
@@ -3463,22 +3463,22 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n" s="3">
+      <c r="A140" s="3" t="n">
         <v>46.0</v>
       </c>
-      <c r="B140" t="n" s="3">
+      <c r="B140" s="3" t="n">
         <v>237.0</v>
       </c>
-      <c r="C140" t="n" s="3">
+      <c r="C140" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D140" t="n" s="3">
+      <c r="D140" s="3" t="n">
         <v>78.0</v>
       </c>
-      <c r="E140" t="n" s="3">
+      <c r="E140" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F140" t="n" s="3">
+      <c r="F140" s="3" t="n">
         <v>16.0</v>
       </c>
       <c r="G140" t="n">
@@ -3487,22 +3487,22 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n" s="3">
+      <c r="A141" s="3" t="n">
         <v>18.0</v>
       </c>
-      <c r="B141" t="n" s="3">
+      <c r="B141" s="3" t="n">
         <v>224.0</v>
       </c>
-      <c r="C141" t="n" s="3">
+      <c r="C141" s="3" t="n">
         <v>13.8</v>
       </c>
-      <c r="D141" t="n" s="3">
+      <c r="D141" s="3" t="n">
         <v>67.0</v>
       </c>
-      <c r="E141" t="n" s="3">
+      <c r="E141" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F141" t="n" s="3">
+      <c r="F141" s="3" t="n">
         <v>17.0</v>
       </c>
       <c r="G141" t="n">
@@ -3511,22 +3511,22 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n" s="3">
+      <c r="A142" s="3" t="n">
         <v>13.0</v>
       </c>
-      <c r="B142" t="n" s="3">
+      <c r="B142" s="3" t="n">
         <v>27.0</v>
       </c>
-      <c r="C142" t="n" s="3">
+      <c r="C142" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D142" t="n" s="3">
+      <c r="D142" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E142" t="n" s="3">
+      <c r="E142" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F142" t="n" s="3">
+      <c r="F142" s="3" t="n">
         <v>18.0</v>
       </c>
       <c r="G142" t="n">
@@ -3535,22 +3535,22 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n" s="3">
+      <c r="A143" s="3" t="n">
         <v>24.0</v>
       </c>
-      <c r="B143" t="n" s="3">
+      <c r="B143" s="3" t="n">
         <v>238.0</v>
       </c>
-      <c r="C143" t="n" s="3">
+      <c r="C143" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D143" t="n" s="3">
+      <c r="D143" s="3" t="n">
         <v>68.0</v>
       </c>
-      <c r="E143" t="n" s="3">
+      <c r="E143" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F143" t="n" s="3">
+      <c r="F143" s="3" t="n">
         <v>19.0</v>
       </c>
       <c r="G143" t="n">
@@ -3559,22 +3559,22 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n" s="3">
+      <c r="A144" s="3" t="n">
         <v>16.0</v>
       </c>
-      <c r="B144" t="n" s="3">
+      <c r="B144" s="3" t="n">
         <v>201.0</v>
       </c>
-      <c r="C144" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D144" t="n" s="3">
+      <c r="C144" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D144" s="3" t="n">
         <v>82.0</v>
       </c>
-      <c r="E144" t="n" s="3">
+      <c r="E144" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F144" t="n" s="3">
+      <c r="F144" s="3" t="n">
         <v>20.0</v>
       </c>
       <c r="G144" t="n">
@@ -3583,22 +3583,22 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n" s="3">
+      <c r="A145" s="3" t="n">
         <v>13.0</v>
       </c>
-      <c r="B145" t="n" s="3">
+      <c r="B145" s="3" t="n">
         <v>238.0</v>
       </c>
-      <c r="C145" t="n" s="3">
+      <c r="C145" s="3" t="n">
         <v>12.6</v>
       </c>
-      <c r="D145" t="n" s="3">
+      <c r="D145" s="3" t="n">
         <v>64.0</v>
       </c>
-      <c r="E145" t="n" s="3">
+      <c r="E145" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F145" t="n" s="3">
+      <c r="F145" s="3" t="n">
         <v>21.0</v>
       </c>
       <c r="G145" t="n">
@@ -3607,22 +3607,22 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n" s="3">
+      <c r="A146" s="3" t="n">
         <v>23.0</v>
       </c>
-      <c r="B146" t="n" s="3">
+      <c r="B146" s="3" t="n">
         <v>14.0</v>
       </c>
-      <c r="C146" t="n" s="3">
+      <c r="C146" s="3" t="n">
         <v>9.2</v>
       </c>
-      <c r="D146" t="n" s="3">
+      <c r="D146" s="3" t="n">
         <v>71.0</v>
       </c>
-      <c r="E146" t="n" s="3">
+      <c r="E146" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F146" t="n" s="3">
+      <c r="F146" s="3" t="n">
         <v>22.0</v>
       </c>
       <c r="G146" t="n">
@@ -3631,22 +3631,22 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n" s="3">
+      <c r="A147" s="3" t="n">
         <v>36.0</v>
       </c>
-      <c r="B147" t="n" s="3">
+      <c r="B147" s="3" t="n">
         <v>139.0</v>
       </c>
-      <c r="C147" t="n" s="3">
+      <c r="C147" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D147" t="n" s="3">
+      <c r="D147" s="3" t="n">
         <v>81.0</v>
       </c>
-      <c r="E147" t="n" s="3">
+      <c r="E147" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F147" t="n" s="3">
+      <c r="F147" s="3" t="n">
         <v>23.0</v>
       </c>
       <c r="G147" t="n">
@@ -3655,22 +3655,22 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B148" t="n" s="3">
+      <c r="A148" s="3" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B148" s="3" t="n">
         <v>49.0</v>
       </c>
-      <c r="C148" t="n" s="3">
+      <c r="C148" s="3" t="n">
         <v>10.3</v>
       </c>
-      <c r="D148" t="n" s="3">
+      <c r="D148" s="3" t="n">
         <v>69.0</v>
       </c>
-      <c r="E148" t="n" s="3">
+      <c r="E148" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F148" t="n" s="3">
+      <c r="F148" s="3" t="n">
         <v>24.0</v>
       </c>
       <c r="G148" t="n">
@@ -3679,22 +3679,22 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n" s="3">
+      <c r="A149" s="3" t="n">
         <v>14.0</v>
       </c>
-      <c r="B149" t="n" s="3">
+      <c r="B149" s="3" t="n">
         <v>20.0</v>
       </c>
-      <c r="C149" t="n" s="3">
+      <c r="C149" s="3" t="n">
         <v>16.6</v>
       </c>
-      <c r="D149" t="n" s="3">
+      <c r="D149" s="3" t="n">
         <v>63.0</v>
       </c>
-      <c r="E149" t="n" s="3">
+      <c r="E149" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F149" t="n" s="3">
+      <c r="F149" s="3" t="n">
         <v>25.0</v>
       </c>
       <c r="G149" t="n">
@@ -3703,22 +3703,22 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n" s="3">
+      <c r="A150" s="3" t="n">
         <v>30.0</v>
       </c>
-      <c r="B150" t="n" s="3">
+      <c r="B150" s="3" t="n">
         <v>193.0</v>
       </c>
-      <c r="C150" t="n" s="3">
+      <c r="C150" s="3" t="n">
         <v>6.9</v>
       </c>
-      <c r="D150" t="n" s="3">
+      <c r="D150" s="3" t="n">
         <v>70.0</v>
       </c>
-      <c r="E150" t="n" s="3">
+      <c r="E150" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F150" t="n" s="3">
+      <c r="F150" s="3" t="n">
         <v>26.0</v>
       </c>
       <c r="G150" t="n">
@@ -3728,19 +3728,19 @@
     </row>
     <row r="151">
       <c r="A151"/>
-      <c r="B151" t="n" s="3">
+      <c r="B151" s="3" t="n">
         <v>145.0</v>
       </c>
-      <c r="C151" t="n" s="3">
+      <c r="C151" s="3" t="n">
         <v>13.2</v>
       </c>
-      <c r="D151" t="n" s="3">
+      <c r="D151" s="3" t="n">
         <v>77.0</v>
       </c>
-      <c r="E151" t="n" s="3">
+      <c r="E151" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F151" t="n" s="3">
+      <c r="F151" s="3" t="n">
         <v>27.0</v>
       </c>
       <c r="G151" t="n">
@@ -3749,22 +3749,22 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n" s="3">
+      <c r="A152" s="3" t="n">
         <v>14.0</v>
       </c>
-      <c r="B152" t="n" s="3">
+      <c r="B152" s="3" t="n">
         <v>191.0</v>
       </c>
-      <c r="C152" t="n" s="3">
+      <c r="C152" s="3" t="n">
         <v>14.3</v>
       </c>
-      <c r="D152" t="n" s="3">
+      <c r="D152" s="3" t="n">
         <v>75.0</v>
       </c>
-      <c r="E152" t="n" s="3">
+      <c r="E152" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F152" t="n" s="3">
+      <c r="F152" s="3" t="n">
         <v>28.0</v>
       </c>
       <c r="G152" t="n">
@@ -3773,22 +3773,22 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n" s="3">
+      <c r="A153" s="3" t="n">
         <v>18.0</v>
       </c>
-      <c r="B153" t="n" s="3">
+      <c r="B153" s="3" t="n">
         <v>131.0</v>
       </c>
-      <c r="C153" t="n" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D153" t="n" s="3">
+      <c r="C153" s="3" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D153" s="3" t="n">
         <v>76.0</v>
       </c>
-      <c r="E153" t="n" s="3">
+      <c r="E153" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F153" t="n" s="3">
+      <c r="F153" s="3" t="n">
         <v>29.0</v>
       </c>
       <c r="G153" t="n">
@@ -3797,22 +3797,22 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n" s="3">
+      <c r="A154" s="3" t="n">
         <v>20.0</v>
       </c>
-      <c r="B154" t="n" s="3">
+      <c r="B154" s="3" t="n">
         <v>223.0</v>
       </c>
-      <c r="C154" t="n" s="3">
+      <c r="C154" s="3" t="n">
         <v>11.5</v>
       </c>
-      <c r="D154" t="n" s="3">
+      <c r="D154" s="3" t="n">
         <v>68.0</v>
       </c>
-      <c r="E154" t="n" s="3">
+      <c r="E154" s="3" t="n">
         <v>9.0</v>
       </c>
-      <c r="F154" t="n" s="3">
+      <c r="F154" s="3" t="n">
         <v>30.0</v>
       </c>
       <c r="G154" t="n">
